--- a/iselUssSyncV2/OutputWSLorientation/20220524_1410_D50L474W30Q21.1U0.39H68.7G2_S3_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1410_D50L474W30Q21.1U0.39H68.7G2_S3_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.43695179794047395</v>
+        <v>0.24982648810415431</v>
       </c>
       <c r="P2" s="0">
         <v>235.91878666666679</v>
@@ -356,10 +356,10 @@
         <v>2.3143632972000012</v>
       </c>
       <c r="R2" s="0">
-        <v>1.2905591165716095</v>
+        <v>2.257215120036975</v>
       </c>
       <c r="S2" s="0">
-        <v>0.40913728138500732</v>
+        <v>1.2702710534895838</v>
       </c>
       <c r="T2" s="0">
         <v>0.041739499797291343</v>
@@ -383,16 +383,16 @@
         <v>180000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.793302815409296</v>
+        <v>1.0253180021061044</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.6566912928722664</v>
+        <v>1.8219444510226175</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.5090507999466505</v>
+        <v>2.0062941543249395</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.6723187581885859</v>
+        <v>1.8361593790942929</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>9.1657420928189168</v>
+        <v>3.8282386053475568</v>
       </c>
     </row>
   </sheetData>
